--- a/medicine/Psychotrope/Lison_(vin)/Lison_(vin).xlsx
+++ b/medicine/Psychotrope/Lison_(vin)/Lison_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lison est un vin d'appellation d'origine protégée (DOCG) dont la production est admise dans les provinces de Venise, Trévise et Pordenone[1],[2].
+Le lison est un vin d'appellation d'origine protégée (DOCG) dont la production est admise dans les provinces de Venise, Trévise et Pordenone,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est grâce à l’arrivée des moines bénédictins au Xe siècle que la région connaît une culture du raisin. La vitiviniculture et l’agriculture de la région connurent également une période heureuse pendant la République de Venise. Au déclin de cette dernière, une autre phase importante en termes d’éclosion de la vitiviniculture fut marquée par la domination des Habsbourg. Dès la moitié du XIXe siècle, on assiste à une expansion de la culture de cépage à baie blanche Tocai. Dès 1971, afin de protéger le Tocai de la région est établie l’Appellation d’Origine Contrôlée « Tocai DOC ». En 1974, cette appellation fut unie à l’appellation « DOC Pramaggiore » formant l’appellation « DOC lison-Pramaggiore ». En 2000, le cahier des charges de cette dernière appellation fut modifié et au vin Tocai fut attribué le synonyme « Lison ». En 2007, le synonyme « Tai » fut ajouté au cépage Tocai et il est employé dans la région de Vénétie.
 Ce vin obtient l’approbation de l’appellation d’origine protégée (DOCG) par décret ministériel le 22 décembre 2010 (Journal Officiel 4 – 7 janvier 2011).[source insuffisante] 
@@ -545,11 +559,48 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L’aire de production de lison couvre les terroirs des communes suivantes.
-Province de Venise
-Annone Veneto
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aire de production de lison couvre les terroirs des communes suivantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aire de production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Province de Venise</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Annone Veneto
 Cinto Caomaggiore
 Gruaro
 Fossalta di Portogruaro
@@ -559,12 +610,80 @@
 Concordia Sagittaria
 Portogruaro
 San Michele al Tagliamento
-San Stino di Livenza
-Province de Trévise
-Meduna di Livenza
-Motta di Livenza
-Province de Pordenone
-Chions
+San Stino di Livenza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aire de production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Province de Trévise</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Meduna di Livenza
+Motta di Livenza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aire de production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Province de Pordenone</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chions
 Cordovado
 Pravisdomini
 Azzano Decimo
@@ -573,65 +692,107 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Géologie
-Les sols du terroir sont caractérisés par la présence d’une couche fine de carbonate de calcium à une profondeur qui oscille entre 30 et 70 cm, et par une couche plus superficielle, essentiellement argileuse. Les deux les couches sont d’origine alluviale. Les sols ainsi composés présentent une bonne capacité de réserve utile. Ils sont également caractérisés par la présence de haute teneur en éléments minéraux, en particulier en potassium, calcium et magnésium. En outre, ces sols sont caractérisés par une dotation équilibrée de matière organique.
-Climatologie
-Le climat de l’aire est tempéré grâce à la proximité de la mer, à la présence d’aires lagunaires et à sa position de plaine, qui favorise l’exposition des vignobles aux vents de la région. Les vents de l’aire sont : la « Bora », qui arrive de l’Est et du Nord-Est, et le sirocco qui arrive du Sud-Est. La présence des vents est un facteur positif, car ceux-ci abaissent la température en favorisant les différences de température entre le jour et la nuit.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols du terroir sont caractérisés par la présence d’une couche fine de carbonate de calcium à une profondeur qui oscille entre 30 et 70 cm, et par une couche plus superficielle, essentiellement argileuse. Les deux les couches sont d’origine alluviale. Les sols ainsi composés présentent une bonne capacité de réserve utile. Ils sont également caractérisés par la présence de haute teneur en éléments minéraux, en particulier en potassium, calcium et magnésium. En outre, ces sols sont caractérisés par une dotation équilibrée de matière organique.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de l’aire est tempéré grâce à la proximité de la mer, à la présence d’aires lagunaires et à sa position de plaine, qui favorise l’exposition des vignobles aux vents de la région. Les vents de l’aire sont : la « Bora », qui arrive de l’Est et du Nord-Est, et le sirocco qui arrive du Sud-Est. La présence des vents est un facteur positif, car ceux-ci abaissent la température en favorisant les différences de température entre le jour et la nuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la production du lison, le cépage Tai (vitigno) (it) est utilisé principalement de 85 à 100 %. 
 Toutefois, les cépages à baie blanche non aromatiques admis à la culture dans les provinces de Venise, de Trévise et de Pordenone peuvent être utilisés à condition de ne pas dépasser le seuil de 15 %.
@@ -639,31 +800,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Culture de la vigne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les opérations de vinification doivent être effectuées dans l’aire définie par le décret, même si des exceptions peuvent se vérifier pour les autres communes.
 Les vignobles doivent contenir au moins 3 000 pieds par hectare.
@@ -677,31 +840,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Taux d'alcool minimum du vin : 12 % vol.
 Acidité totale minimale : 4,50 g/L
@@ -709,31 +874,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Couleur : jaune paille plus ou moins intense, parfois avec les reflets verdâtres ;
 Odeur : caractéristique, agréable ;
@@ -741,31 +908,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lison_(vin)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lison s’associe à la viande blanche, des plats de la cuisine marine tels que la barbue accompagnée de pommes de terre au four, maquereau et anguilles en sauce, la tartare de thon et les typiques « sardes in saor » ; les plats tels que les raviolis au beurre et à la sauge, les ravioli aux asperges, les petites pâtes fraîches avec les cèpes et le « Parmigiano Reggiano », le soufflé aux asperges, les « bigoli » en sauce, les « linguine » aux crevettes et courgettes, le « risotto alla sbirraglia », le risotto à la citrouille.
 </t>
